--- a/data/reporting/user_data_change_log.xlsx
+++ b/data/reporting/user_data_change_log.xlsx
@@ -459,8 +459,9 @@
     <col min="2" max="2" width="27.42578125" style="2" customWidth="1"/>
     <col min="3" max="7" width="26.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="41.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
